--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -289,6 +289,84 @@
   </si>
   <si>
     <t>203.162.69.57,20005</t>
+  </si>
+  <si>
+    <t>203.162.69.18,17883</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20005</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SF,NCFW</t>
+  </si>
+  <si>
+    <t>Lỗi moudule GSM</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20004</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20002</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20475</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20375</t>
+  </si>
+  <si>
+    <t>Nguồn chập chờn, chân connector oxi hóa</t>
+  </si>
+  <si>
+    <t>Thay connector (x2), nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16883</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20175</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20075</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1300,18 +1378,34 @@
         <v>868183038495110</v>
       </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="P6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
@@ -1344,17 +1438,29 @@
       <c r="I7" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="P7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
@@ -1429,16 +1535,30 @@
         <v>69</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="P9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
@@ -1464,16 +1584,32 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="I10" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="P10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>90</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
@@ -1497,7 +1633,9 @@
         <v>868183034807326</v>
       </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="51"/>
       <c r="I11" s="53" t="s">
         <v>75</v>
@@ -1550,16 +1688,32 @@
         <v>69</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
+      <c r="I12" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
+      <c r="P12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>90</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
@@ -1589,16 +1743,34 @@
         <v>69</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="I13" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="13">
+        <v>20000</v>
+      </c>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
@@ -1626,16 +1798,32 @@
         <v>69</v>
       </c>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
+      <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="13">
+        <v>300000</v>
+      </c>
       <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
@@ -1708,7 +1896,9 @@
         <v>868183035898084</v>
       </c>
       <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="G16" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="2" t="s">
         <v>84</v>
@@ -1761,16 +1951,30 @@
         <v>69</v>
       </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="P17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="63"/>
       <c r="U17" s="16"/>
@@ -1796,16 +2000,30 @@
         <v>69</v>
       </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="63"/>
       <c r="U18" s="16"/>
@@ -1872,7 +2090,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,7 +2122,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1936,7 +2154,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,7 +2303,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,7 +2399,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2495,7 @@
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2559,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2623,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4364,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4667,16 +4885,30 @@
         <v>69</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>103</v>
+      </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="P8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>37</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="69"/>
@@ -4778,17 +5010,31 @@
         <v>69</v>
       </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="53"/>
+      <c r="M11" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
       <c r="V11" s="79"/>
@@ -4815,17 +5061,31 @@
         <v>69</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
+      <c r="M12" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R12" s="56"/>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
       <c r="V12" s="78" t="s">
@@ -5127,7 +5387,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5167,7 +5427,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5458,17 +5718,31 @@
         <v>69</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
+      <c r="P29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T29" s="69"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
@@ -5604,7 +5878,7 @@
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5732,7 +6006,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>Lock: 203.162.69.75,20075</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16885</t>
   </si>
 </sst>
 </file>
@@ -798,30 +807,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -843,10 +828,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1187,43 +1196,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1268,58 +1277,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="78" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1344,24 +1353,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1409,7 +1418,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1464,7 +1473,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="79"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1511,7 +1520,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="79"/>
+      <c r="V8" s="71"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1571,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1613,7 +1622,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="71"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1664,7 +1673,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1717,7 +1726,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1774,7 +1783,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1836,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="79"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1876,7 +1885,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="79"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +1936,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="80"/>
+      <c r="V16" s="72"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3205,10 +3214,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="81" t="s">
+      <c r="V56" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="81">
+      <c r="W56" s="73">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3237,8 +3246,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3264,8 +3273,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4552,6 +4561,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4562,16 +4581,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4583,7 +4592,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4614,43 +4623,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4695,58 +4704,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="78" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4771,24 +4780,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4822,7 +4831,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4848,20 +4857,32 @@
         <v>69</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>112</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="P7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>36</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="79"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4912,7 +4933,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="79"/>
+      <c r="V8" s="71"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4949,7 +4970,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4986,7 +5007,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="71"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5037,7 +5058,7 @@
       </c>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5088,7 +5109,7 @@
       </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5127,7 +5148,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5164,7 +5185,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="79"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5201,7 +5222,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="69"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="79"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5225,20 +5246,34 @@
         <v>69</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R16" s="11"/>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T16" s="69"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="80"/>
+      <c r="V16" s="72"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5387,7 +5422,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5427,7 +5462,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,7 +5945,7 @@
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,7 +6041,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,10 +6623,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="81" t="s">
+      <c r="V56" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="81">
+      <c r="W56" s="73">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6620,8 +6655,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6647,8 +6682,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7935,6 +7970,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7945,16 +7990,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7997,43 +8032,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8078,58 +8113,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="78" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8154,24 +8189,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8197,7 +8232,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8228,7 +8263,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="79"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8257,7 +8292,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="79"/>
+      <c r="V8" s="71"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8286,7 +8321,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8315,7 +8350,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="71"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8344,7 +8379,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8373,7 +8408,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8404,7 +8439,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8433,7 +8468,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="79"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8462,7 +8497,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="79"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8491,7 +8526,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="80"/>
+      <c r="V16" s="72"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9725,10 +9760,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="81" t="s">
+      <c r="V56" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="81">
+      <c r="W56" s="73">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9757,8 +9792,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9784,8 +9819,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -11072,6 +11107,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11082,16 +11127,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -372,10 +372,49 @@
     <t>Thiết bị reset liện tục</t>
   </si>
   <si>
-    <t>Nạp lại FW</t>
-  </si>
-  <si>
     <t>Lock: 203.162.69.18,16885</t>
+  </si>
+  <si>
+    <t>Oxi hóa mạch moudule GSM , chập nổ ACC, không bắn lên terminal</t>
+  </si>
+  <si>
+    <t>Thay MCU, IC giao tiếp, thay module GSM</t>
+  </si>
+  <si>
+    <t>GSM,MCU,LK</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20003</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,17883</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16884</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30020</t>
+  </si>
+  <si>
+    <t>Thiết bi không nhận sim</t>
   </si>
 </sst>
 </file>
@@ -807,6 +846,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,34 +891,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1196,43 +1235,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1277,58 +1316,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="85" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1353,24 +1392,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1418,7 +1457,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1473,7 +1512,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1520,7 +1559,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1610,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1622,7 +1661,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1673,7 +1712,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1726,7 +1765,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1783,7 +1822,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1836,7 +1875,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1885,7 +1924,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1936,7 +1975,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3214,10 +3253,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="81">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3246,8 +3285,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3273,8 +3312,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4561,6 +4600,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4571,16 +4620,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4591,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4606,14 +4645,14 @@
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="15" style="22" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="22" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
     <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="22"/>
@@ -4623,43 +4662,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4704,58 +4743,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="85" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4780,24 +4819,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4831,7 +4870,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4858,15 +4897,17 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="53" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>111</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="M7" s="53" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
@@ -4879,10 +4920,12 @@
       <c r="R7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4933,7 +4976,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4970,7 +5013,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5007,7 +5050,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5058,7 +5101,7 @@
       </c>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5109,7 +5152,7 @@
       </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5148,12 +5191,12 @@
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -5173,19 +5216,31 @@
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="K14" s="53"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="13">
+        <v>420000</v>
+      </c>
       <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5222,7 +5277,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="69"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5247,7 +5302,7 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>80</v>
@@ -5255,9 +5310,11 @@
       <c r="K16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="53"/>
@@ -5265,15 +5322,17 @@
         <v>73</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4" t="s">
         <v>107</v>
       </c>
       <c r="T16" s="69"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5290,22 +5349,40 @@
         <v>46</v>
       </c>
       <c r="E17" s="52">
-        <v>868926033983871</v>
+        <v>868926033983971</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="4"/>
+      <c r="P17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T17" s="69"/>
       <c r="U17" s="16"/>
       <c r="V17" s="69"/>
@@ -5444,17 +5521,35 @@
         <v>69</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="4"/>
+      <c r="P21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T21" s="69"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
@@ -5462,7 +5557,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5502,7 +5597,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5559,9 +5654,13 @@
         <v>69</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -5651,7 +5750,7 @@
       </c>
       <c r="W26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5673,17 +5772,31 @@
         <v>69</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
+      <c r="P27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T27" s="69"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
@@ -5691,7 +5804,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5849,7 +5962,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5977,7 +6090,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,7 +6154,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6623,10 +6736,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="81">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6655,8 +6768,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6682,8 +6795,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7970,6 +8083,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7980,16 +8103,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8032,43 +8145,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8113,58 +8226,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="85" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8189,24 +8302,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8232,7 +8345,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8263,7 +8376,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8292,7 +8405,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8321,7 +8434,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8350,7 +8463,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8379,7 +8492,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8408,7 +8521,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8439,7 +8552,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8468,7 +8581,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8497,7 +8610,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8526,7 +8639,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9760,10 +9873,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="81">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9792,8 +9905,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9819,8 +9932,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -11107,6 +11220,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11117,16 +11240,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="140">
   <si>
     <t>STT</t>
   </si>
@@ -415,6 +415,45 @@
   </si>
   <si>
     <t>Thiết bi không nhận sim</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.42,16873</t>
+  </si>
+  <si>
+    <t>Chý ý kiểm tra lại hạn dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim, mất cấu hình</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết biị không nhận sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30006</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa, thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Vệ sinh lại mạch, nâng cấp khay sim, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4630,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4643,7 +4682,7 @@
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="55.85546875" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
@@ -4857,17 +4896,33 @@
         <v>69</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>134</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="69"/>
       <c r="V6" s="78" t="s">
@@ -5000,17 +5055,35 @@
         <v>69</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="I9" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="4"/>
+      <c r="P9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
       <c r="V9" s="79"/>
@@ -5038,16 +5111,32 @@
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="65"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="J10" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="4"/>
+      <c r="P10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
       <c r="V10" s="79"/>
@@ -5178,17 +5267,31 @@
         <v>69</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>103</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
       <c r="V13" s="79"/>
@@ -5264,17 +5367,33 @@
         <v>69</v>
       </c>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N15" s="13"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="4"/>
+      <c r="P15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T15" s="69"/>
       <c r="U15" s="16"/>
       <c r="V15" s="79"/>
@@ -5406,18 +5525,38 @@
       <c r="G18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="H18" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="4"/>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T18" s="69"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -5442,17 +5581,33 @@
         <v>69</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
+      <c r="P19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T19" s="69"/>
       <c r="U19" s="16"/>
       <c r="V19" s="57" t="s">
@@ -5557,7 +5712,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5579,17 +5734,35 @@
         <v>69</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
+      <c r="P22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T22" s="69"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
@@ -5597,7 +5770,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5619,17 +5792,35 @@
         <v>69</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
+      <c r="P23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T23" s="69"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -5732,17 +5923,35 @@
         <v>69</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
+      <c r="I26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
+      <c r="P26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T26" s="69"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
@@ -5826,14 +6035,20 @@
         <v>69</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
@@ -5994,7 +6209,7 @@
       </c>
       <c r="W32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6090,7 +6305,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6369,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="140">
   <si>
     <t>STT</t>
   </si>
@@ -289,6 +289,171 @@
   </si>
   <si>
     <t>203.162.69.57,20005</t>
+  </si>
+  <si>
+    <t>203.162.69.18,17883</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20005</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SF,NCFW</t>
+  </si>
+  <si>
+    <t>Lỗi moudule GSM</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20004</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20002</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20475</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20375</t>
+  </si>
+  <si>
+    <t>Nguồn chập chờn, chân connector oxi hóa</t>
+  </si>
+  <si>
+    <t>Thay connector (x2), nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16883</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20175</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20075</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16885</t>
+  </si>
+  <si>
+    <t>Oxi hóa mạch moudule GSM , chập nổ ACC, không bắn lên terminal</t>
+  </si>
+  <si>
+    <t>Thay MCU, IC giao tiếp, thay module GSM</t>
+  </si>
+  <si>
+    <t>GSM,MCU,LK</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.57,20003</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,17883</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16884</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,30020</t>
+  </si>
+  <si>
+    <t>Thiết bi không nhận sim</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.42,16873</t>
+  </si>
+  <si>
+    <t>Chý ý kiểm tra lại hạn dịch vụ trên server</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim, mất cấu hình</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết biị không nhận sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30006</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa, thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Vệ sinh lại mạch, nâng cấp khay sim, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1300,18 +1465,34 @@
         <v>868183038495110</v>
       </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="P6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
@@ -1344,17 +1525,29 @@
       <c r="I7" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="53"/>
+      <c r="J7" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="P7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
@@ -1429,16 +1622,30 @@
         <v>69</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="I9" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="P9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>90</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
@@ -1464,16 +1671,32 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="I10" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="P10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>90</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
@@ -1497,7 +1720,9 @@
         <v>868183034807326</v>
       </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="51"/>
       <c r="I11" s="53" t="s">
         <v>75</v>
@@ -1550,16 +1775,32 @@
         <v>69</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
+      <c r="I12" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
+      <c r="P12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>90</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
@@ -1589,16 +1830,34 @@
         <v>69</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="I13" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="13">
+        <v>20000</v>
+      </c>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
@@ -1626,16 +1885,32 @@
         <v>69</v>
       </c>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
+      <c r="I14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="13">
+        <v>300000</v>
+      </c>
       <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
@@ -1708,7 +1983,9 @@
         <v>868183035898084</v>
       </c>
       <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="G16" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="2" t="s">
         <v>84</v>
@@ -1761,16 +2038,30 @@
         <v>69</v>
       </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="P17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="63"/>
       <c r="U17" s="16"/>
@@ -1796,16 +2087,30 @@
         <v>69</v>
       </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="63"/>
       <c r="U18" s="16"/>
@@ -1872,7 +2177,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,7 +2209,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1936,7 +2241,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,7 +2390,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,7 +2486,7 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2582,7 @@
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2646,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,7 +2710,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4364,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4377,16 +4682,16 @@
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="10" max="10" width="55.85546875" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="15" style="22" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="22" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
     <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="22"/>
@@ -4591,17 +4896,33 @@
         <v>69</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>134</v>
+      </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="69"/>
       <c r="V6" s="78" t="s">
@@ -4630,17 +4951,33 @@
         <v>69</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="4"/>
+      <c r="P7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="69"/>
       <c r="V7" s="79"/>
@@ -4667,16 +5004,30 @@
         <v>69</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>103</v>
+      </c>
       <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="P8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>37</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="69"/>
@@ -4704,17 +5055,35 @@
         <v>69</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="I9" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="4"/>
+      <c r="P9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
       <c r="V9" s="79"/>
@@ -4742,16 +5111,32 @@
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="65"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="J10" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="4"/>
+      <c r="P10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
       <c r="V10" s="79"/>
@@ -4778,17 +5163,31 @@
         <v>69</v>
       </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="53"/>
+      <c r="M11" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R11" s="51"/>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
       <c r="V11" s="79"/>
@@ -4815,17 +5214,31 @@
         <v>69</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
+      <c r="M12" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R12" s="56"/>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
       <c r="V12" s="78" t="s">
@@ -4854,17 +5267,31 @@
         <v>69</v>
       </c>
       <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="I13" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>103</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
       <c r="V13" s="79"/>
@@ -4872,7 +5299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -4892,15 +5319,27 @@
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="K14" s="53"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="13">
+        <v>420000</v>
+      </c>
       <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
@@ -4928,17 +5367,33 @@
         <v>69</v>
       </c>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N15" s="13"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="4"/>
+      <c r="P15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T15" s="69"/>
       <c r="U15" s="16"/>
       <c r="V15" s="79"/>
@@ -4965,17 +5420,35 @@
         <v>69</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="I16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="4"/>
+      <c r="P16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T16" s="69"/>
       <c r="U16" s="16"/>
       <c r="V16" s="80"/>
@@ -4995,22 +5468,40 @@
         <v>46</v>
       </c>
       <c r="E17" s="52">
-        <v>868926033983871</v>
+        <v>868926033983971</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="4"/>
+      <c r="P17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T17" s="69"/>
       <c r="U17" s="16"/>
       <c r="V17" s="69"/>
@@ -5034,18 +5525,38 @@
       <c r="G18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="H18" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="53"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="4"/>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T18" s="69"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -5070,17 +5581,33 @@
         <v>69</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
+      <c r="P19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T19" s="69"/>
       <c r="U19" s="16"/>
       <c r="V19" s="57" t="s">
@@ -5127,7 +5654,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5149,17 +5676,35 @@
         <v>69</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="4"/>
+      <c r="P21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T21" s="69"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
@@ -5167,7 +5712,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5189,17 +5734,35 @@
         <v>69</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
+      <c r="P22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T22" s="69"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
@@ -5207,7 +5770,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5229,17 +5792,35 @@
         <v>69</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
+      <c r="P23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T23" s="69"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -5264,9 +5845,13 @@
         <v>69</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -5338,17 +5923,35 @@
         <v>69</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
+      <c r="I26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
+      <c r="P26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T26" s="69"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
@@ -5356,7 +5959,7 @@
       </c>
       <c r="W26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5378,17 +5981,31 @@
         <v>69</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
+      <c r="P27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T27" s="69"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
@@ -5396,7 +6013,7 @@
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,14 +6035,20 @@
         <v>69</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
@@ -5458,17 +6081,31 @@
         <v>69</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
+      <c r="P29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T29" s="69"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
@@ -5540,7 +6177,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5572,7 +6209,7 @@
       </c>
       <c r="W32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5604,7 +6241,7 @@
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5636,7 +6273,7 @@
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5668,7 +6305,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5732,7 +6369,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="142">
   <si>
     <t>STT</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Oxi hóa mạch moudule GSM , chập nổ ACC, không bắn lên terminal</t>
   </si>
   <si>
-    <t>Thay MCU, IC giao tiếp, thay module GSM</t>
-  </si>
-  <si>
     <t>GSM,MCU,LK</t>
   </si>
   <si>
@@ -454,6 +451,15 @@
   </si>
   <si>
     <t>Vệ sinh lại mạch, nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thay MCU, IC giao tiếp, thay module GSM (khách báo không sửa)</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -885,30 +897,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -930,10 +918,55 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1274,43 +1307,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1355,58 +1388,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="78" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1431,24 +1464,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1496,7 +1529,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1551,7 +1584,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="79"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1598,7 +1631,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="79"/>
+      <c r="V8" s="71"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1649,7 +1682,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1700,7 +1733,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="71"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1751,7 +1784,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1837,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1861,7 +1894,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1929,7 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="N14" s="13">
         <v>300000</v>
@@ -1914,7 +1947,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="79"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1963,7 +1996,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="79"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2014,7 +2047,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="80"/>
+      <c r="V16" s="72"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3292,10 +3325,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="81" t="s">
+      <c r="V56" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="81">
+      <c r="W56" s="73">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3324,8 +3357,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3351,8 +3384,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4639,6 +4672,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4649,16 +4692,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4669,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4701,43 +4734,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4782,58 +4815,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="78" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4858,24 +4891,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4900,14 +4933,14 @@
         <v>110</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
@@ -4925,7 +4958,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4952,17 +4985,17 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>111</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="53" t="s">
         <v>119</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>120</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="53"/>
@@ -4980,7 +5013,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="79"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5031,7 +5064,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="79"/>
+      <c r="V8" s="71"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5062,13 +5095,13 @@
         <v>80</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
@@ -5086,7 +5119,7 @@
       </c>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5112,16 +5145,16 @@
       <c r="H10" s="51"/>
       <c r="I10" s="65"/>
       <c r="J10" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L10" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="53"/>
@@ -5132,14 +5165,14 @@
         <v>101</v>
       </c>
       <c r="R10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>107</v>
       </c>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="71"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5190,7 +5223,7 @@
       </c>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5241,7 +5274,7 @@
       </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5268,7 +5301,7 @@
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>80</v>
@@ -5294,56 +5327,56 @@
       </c>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="87">
         <v>9</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="91">
         <v>864811037199903</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="90"/>
+      <c r="G14" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="H14" s="90"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
+      <c r="K14" s="90"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" s="93"/>
+      <c r="O14" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="N14" s="13">
-        <v>420000</v>
-      </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S14" s="4"/>
+      <c r="S14" s="87"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="79"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5378,7 +5411,7 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="53"/>
@@ -5396,7 +5429,7 @@
       </c>
       <c r="T15" s="69"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="79"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5430,10 +5463,10 @@
         <v>103</v>
       </c>
       <c r="L16" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="53"/>
@@ -5451,7 +5484,7 @@
       </c>
       <c r="T16" s="69"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="80"/>
+      <c r="V16" s="72"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5474,7 +5507,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
       <c r="I17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>80</v>
@@ -5483,10 +5516,10 @@
         <v>103</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="53"/>
@@ -5526,10 +5559,10 @@
         <v>69</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>80</v>
@@ -5538,10 +5571,10 @@
         <v>109</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="53"/>
@@ -5582,17 +5615,17 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>80</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -5636,17 +5669,33 @@
         <v>69</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
+      <c r="P20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T20" s="69"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
@@ -5677,7 +5726,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>80</v>
@@ -5686,10 +5735,10 @@
         <v>105</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -5744,10 +5793,10 @@
         <v>105</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
@@ -5770,7 +5819,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,13 +5848,13 @@
         <v>80</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
@@ -5846,11 +5895,11 @@
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -5884,17 +5933,33 @@
         <v>69</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="M25" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="4"/>
+      <c r="P25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T25" s="69"/>
       <c r="U25" s="16"/>
       <c r="V25" s="57" t="s">
@@ -5924,19 +5989,19 @@
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -5982,13 +6047,13 @@
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="K27" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
@@ -6305,7 +6370,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6369,7 +6434,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6487,7 +6552,7 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6951,10 +7016,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="81" t="s">
+      <c r="V56" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="81">
+      <c r="W56" s="73">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6983,8 +7048,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7010,8 +7075,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7128,7 +7193,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8298,6 +8363,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -8308,16 +8383,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8360,43 +8425,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8441,58 +8506,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="78" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="77" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8517,24 +8582,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8560,7 +8625,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8591,7 +8656,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="79"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8620,7 +8685,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="79"/>
+      <c r="V8" s="71"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8649,7 +8714,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="79"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8678,7 +8743,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="79"/>
+      <c r="V10" s="71"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8707,7 +8772,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="79"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8736,7 +8801,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8767,7 +8832,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="79"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8796,7 +8861,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="79"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8825,7 +8890,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="79"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8854,7 +8919,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="80"/>
+      <c r="V16" s="72"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10088,10 +10153,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="81" t="s">
+      <c r="V56" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="81">
+      <c r="W56" s="73">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10120,8 +10185,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10147,8 +10212,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="83"/>
-      <c r="W58" s="83"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -11435,6 +11500,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11445,16 +11520,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="144">
   <si>
     <t>STT</t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>Thay MCU, IC giao tiếp, thay module GSM (khách báo không sửa)</t>
+  </si>
+  <si>
+    <t>Imei mới: 860157043045662</t>
+  </si>
+  <si>
+    <t>Imei mới: 860157043045688</t>
   </si>
 </sst>
 </file>
@@ -897,6 +903,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -918,55 +969,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,7 +1282,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1294,7 @@
     <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="38.28515625" style="22" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
@@ -1307,43 +1313,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1388,58 +1394,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="92" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="82" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1464,24 +1470,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1501,7 +1507,9 @@
       <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="I6" s="59" t="s">
         <v>86</v>
       </c>
@@ -1529,7 +1537,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1584,7 +1592,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1631,7 +1639,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1690,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1733,7 +1741,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1784,7 +1792,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1837,7 +1845,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1894,7 +1902,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1917,7 +1925,9 @@
       <c r="G14" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="51"/>
+      <c r="H14" s="51" t="s">
+        <v>142</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>79</v>
       </c>
@@ -1947,7 +1957,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1996,7 +2006,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2057,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3325,10 +3335,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="88">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3357,8 +3367,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3384,8 +3394,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4672,6 +4682,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4682,16 +4702,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4734,43 +4744,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4815,58 +4825,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="92" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="82" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4891,24 +4901,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4958,7 +4968,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -5013,7 +5023,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5064,7 +5074,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5119,7 +5129,7 @@
       </c>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5172,7 +5182,7 @@
       </c>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5223,7 +5233,7 @@
       </c>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5274,7 +5284,7 @@
       </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5327,56 +5337,56 @@
       </c>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87">
+      <c r="A14" s="70">
         <v>9</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="74">
         <v>864811037199903</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92" t="s">
+      <c r="H14" s="73"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87" t="s">
+      <c r="K14" s="73"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="N14" s="93"/>
-      <c r="O14" s="90" t="s">
+      <c r="N14" s="76"/>
+      <c r="O14" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="P14" s="87" t="s">
+      <c r="P14" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="93" t="s">
+      <c r="Q14" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="87" t="s">
+      <c r="R14" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="S14" s="87"/>
+      <c r="S14" s="70"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5429,7 +5439,7 @@
       </c>
       <c r="T15" s="69"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5484,7 +5494,7 @@
       </c>
       <c r="T16" s="69"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7016,10 +7026,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="88">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7048,8 +7058,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7075,8 +7085,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -8363,6 +8373,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8373,16 +8393,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8425,43 +8435,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8506,58 +8516,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="92" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="82" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8582,24 +8592,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8625,7 +8635,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8656,7 +8666,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8685,7 +8695,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8714,7 +8724,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8743,7 +8753,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8772,7 +8782,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8801,7 +8811,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8832,7 +8842,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8861,7 +8871,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8890,7 +8900,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8919,7 +8929,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10153,10 +10163,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="88">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10185,8 +10195,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10212,8 +10222,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -11500,6 +11510,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11510,16 +11530,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="152">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Chập nổ nguồn 4v4, 3v3</t>
   </si>
   <si>
-    <t>Thay IC nguồn 4v4, 3v3, MCU, tụ tantalun(x2)</t>
-  </si>
-  <si>
     <t>Tùng</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>Bung via connector nguồn</t>
   </si>
   <si>
-    <t>Xử lý phần cứng</t>
-  </si>
-  <si>
     <t>LE.1.00.---01.180710</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>Lock: 203.162.69.57,20005</t>
   </si>
   <si>
-    <t>Thay module GSM</t>
-  </si>
-  <si>
     <t>LE.2.00.---28.200624</t>
   </si>
   <si>
@@ -360,9 +351,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>Nâng cấp khay sim</t>
-  </si>
-  <si>
     <t>VI.1.00.---01.170906</t>
   </si>
   <si>
@@ -466,6 +454,42 @@
   </si>
   <si>
     <t>Imei mới: 860157043045688</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4, 3v3, MCU, tụ tantalun(x2), nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW, thay vở 2 mặt</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW, thay vở măt sau</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW, thay vỏ mặt sau</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW, thay vỏ 2 mặt</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim,nâng cấp FW, thay vỏ mặt sau</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW,  thay vỏ mặt sau</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>01/12/2020</t>
   </si>
 </sst>
 </file>
@@ -694,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -907,9 +931,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1281,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1313,43 +1334,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1394,58 +1415,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="82" t="s">
+      <c r="W4" s="81" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1470,24 +1491,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1496,7 +1517,9 @@
       <c r="B6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -1508,36 +1531,40 @@
         <v>66</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>81</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="M6" s="53" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P6" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1551,7 +1578,9 @@
       <c r="B7" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -1564,35 +1593,37 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P7" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1635,9 @@
       <c r="B8" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
@@ -1616,30 +1649,38 @@
         <v>66</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="J8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
+      <c r="K8" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="M8" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53" t="s">
-        <v>73</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="R8" s="56" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="85"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1651,7 +1692,9 @@
       <c r="B9" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>44</v>
       </c>
@@ -1664,33 +1707,37 @@
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="56"/>
+      <c r="L9" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="M9" s="53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P9" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R9" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="85"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1702,7 +1749,9 @@
       <c r="B10" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>44</v>
       </c>
@@ -1713,35 +1762,37 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
       <c r="I10" s="65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L10" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M10" s="53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
+      <c r="O10" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P10" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R10" s="56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="85"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1753,7 +1804,9 @@
       <c r="B11" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>44</v>
       </c>
@@ -1766,33 +1819,37 @@
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>76</v>
-      </c>
       <c r="K11" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="M11" s="53" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
+      <c r="O11" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P11" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="R11" s="51" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="85"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1861,9 @@
       <c r="B12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>44</v>
       </c>
@@ -1817,35 +1876,37 @@
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M12" s="53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="53"/>
+      <c r="O12" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P12" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R12" s="56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1859,7 +1920,9 @@
       <c r="B13" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" s="51" t="s">
         <v>44</v>
       </c>
@@ -1872,37 +1935,39 @@
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N13" s="13">
         <v>20000</v>
       </c>
-      <c r="O13" s="53"/>
+      <c r="O13" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="85"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1914,7 +1979,9 @@
       <c r="B14" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" s="51" t="s">
         <v>44</v>
       </c>
@@ -1926,38 +1993,42 @@
         <v>69</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N14" s="13">
         <v>300000</v>
       </c>
-      <c r="O14" s="53"/>
+      <c r="O14" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="85"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +2040,9 @@
       <c r="B15" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" s="51" t="s">
         <v>44</v>
       </c>
@@ -1980,22 +2053,26 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
       <c r="I15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="53"/>
+      <c r="O15" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>19</v>
@@ -2006,7 +2083,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2095,9 @@
       <c r="B16" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" s="51" t="s">
         <v>44</v>
       </c>
@@ -2031,22 +2110,26 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="53"/>
+      <c r="O16" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>19</v>
@@ -2057,7 +2140,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2069,7 +2152,9 @@
       <c r="B17" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" s="51" t="s">
         <v>44</v>
       </c>
@@ -2082,22 +2167,26 @@
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="M17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="53"/>
+      <c r="O17" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>19</v>
@@ -2118,7 +2207,9 @@
       <c r="B18" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D18" s="51" t="s">
         <v>44</v>
       </c>
@@ -2131,22 +2222,26 @@
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="53"/>
+      <c r="O18" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>19</v>
@@ -2252,7 +2347,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2284,7 +2379,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2784,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2753,7 +2848,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,10 +3430,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="88" t="s">
+      <c r="V56" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="88">
+      <c r="W56" s="87">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3367,8 +3462,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="89"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3394,8 +3489,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4712,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4730,7 +4825,7 @@
     <col min="10" max="10" width="55.85546875" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="13" max="13" width="61.5703125" style="22" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
     <col min="16" max="16" width="15" style="22" customWidth="1"/>
@@ -4744,43 +4839,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4825,58 +4920,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="82" t="s">
+      <c r="W4" s="81" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4901,24 +4996,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4927,7 +5022,9 @@
       <c r="B6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -4940,35 +5037,39 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>129</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="69"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4982,7 +5083,9 @@
       <c r="B7" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -4995,22 +5098,24 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="53" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="53" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M7" s="53" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P7" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
@@ -5019,11 +5124,11 @@
         <v>36</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5035,7 +5140,9 @@
       <c r="B8" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>46</v>
       </c>
@@ -5048,33 +5155,37 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="53"/>
+        <v>100</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="M8" s="53" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
+      <c r="O8" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P8" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="56" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="69"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="85"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5086,7 +5197,9 @@
       <c r="B9" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
@@ -5099,37 +5212,39 @@
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="65" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P9" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R9" s="51" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T9" s="69"/>
       <c r="U9" s="69"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="85"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5141,7 +5256,9 @@
       <c r="B10" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
@@ -5155,34 +5272,36 @@
       <c r="H10" s="51"/>
       <c r="I10" s="65"/>
       <c r="J10" s="53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L10" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>130</v>
+        <v>114</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
+      <c r="O10" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P10" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R10" s="56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T10" s="69"/>
       <c r="U10" s="69"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="85"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5194,7 +5313,9 @@
       <c r="B11" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D11" s="51" t="s">
         <v>46</v>
       </c>
@@ -5207,33 +5328,39 @@
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>113</v>
+      </c>
       <c r="M11" s="53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
+      <c r="O11" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P11" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="51"/>
+        <v>98</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="85"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5245,7 +5372,9 @@
       <c r="B12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D12" s="51" t="s">
         <v>46</v>
       </c>
@@ -5258,33 +5387,39 @@
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" s="56"/>
+        <v>102</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="M12" s="53" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="53"/>
+      <c r="O12" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P12" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="56"/>
+        <v>98</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5298,7 +5433,9 @@
       <c r="B13" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" s="51" t="s">
         <v>46</v>
       </c>
@@ -5311,33 +5448,39 @@
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="M13" s="53" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="53"/>
+      <c r="O13" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="85"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5349,44 +5492,46 @@
       <c r="B14" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="73">
         <v>864811037199903</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="73"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="72"/>
       <c r="L14" s="70"/>
       <c r="M14" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="N14" s="76"/>
-      <c r="O14" s="73" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="N14" s="75"/>
+      <c r="O14" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="P14" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="75" t="s">
         <v>18</v>
       </c>
       <c r="R14" s="70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="S14" s="70"/>
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="85"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5398,7 +5543,9 @@
       <c r="B15" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" s="51" t="s">
         <v>46</v>
       </c>
@@ -5411,35 +5558,39 @@
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="M15" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="53"/>
+      <c r="O15" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T15" s="69"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5451,7 +5602,9 @@
       <c r="B16" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" s="51" t="s">
         <v>46</v>
       </c>
@@ -5464,37 +5617,39 @@
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="53"/>
+      <c r="O16" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T16" s="69"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5506,7 +5661,9 @@
       <c r="B17" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" s="51" t="s">
         <v>46</v>
       </c>
@@ -5517,33 +5674,35 @@
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="53"/>
+      <c r="O17" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T17" s="69"/>
       <c r="U17" s="16"/>
@@ -5557,7 +5716,9 @@
       <c r="B18" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D18" s="51" t="s">
         <v>46</v>
       </c>
@@ -5569,36 +5730,38 @@
         <v>69</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="53"/>
+      <c r="O18" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T18" s="69"/>
       <c r="U18" s="16"/>
@@ -5612,7 +5775,9 @@
       <c r="B19" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" s="51" t="s">
         <v>46</v>
       </c>
@@ -5625,31 +5790,35 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="M19" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R19" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T19" s="69"/>
       <c r="U19" s="16"/>
@@ -5667,7 +5836,9 @@
       <c r="B20" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D20" s="51" t="s">
         <v>46</v>
       </c>
@@ -5680,31 +5851,35 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T20" s="69"/>
       <c r="U20" s="16"/>
@@ -5723,7 +5898,9 @@
       <c r="B21" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D21" s="51" t="s">
         <v>46</v>
       </c>
@@ -5736,33 +5913,35 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T21" s="69"/>
       <c r="U21" s="16"/>
@@ -5771,7 +5950,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5781,7 +5960,9 @@
       <c r="B22" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D22" s="51" t="s">
         <v>46</v>
       </c>
@@ -5794,33 +5975,35 @@
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T22" s="69"/>
       <c r="U22" s="16"/>
@@ -5829,7 +6012,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +6022,9 @@
       <c r="B23" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D23" s="51" t="s">
         <v>46</v>
       </c>
@@ -5852,33 +6037,35 @@
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P23" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T23" s="69"/>
       <c r="U23" s="16"/>
@@ -5892,7 +6079,9 @@
       <c r="B24" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D24" s="51" t="s">
         <v>46</v>
       </c>
@@ -5905,20 +6094,36 @@
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="K24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
+      <c r="O24" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T24" s="69"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
@@ -5931,7 +6136,9 @@
       <c r="B25" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D25" s="51" t="s">
         <v>46</v>
       </c>
@@ -5944,31 +6151,35 @@
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="M25" s="11" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="O25" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T25" s="69"/>
       <c r="U25" s="16"/>
@@ -5986,7 +6197,9 @@
       <c r="B26" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D26" s="51" t="s">
         <v>46</v>
       </c>
@@ -5999,33 +6212,35 @@
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="O26" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P26" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T26" s="69"/>
       <c r="U26" s="16"/>
@@ -6044,7 +6259,9 @@
       <c r="B27" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D27" s="51" t="s">
         <v>46</v>
       </c>
@@ -6057,29 +6274,35 @@
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="M27" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="O27" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P27" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R27" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S27" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T27" s="69"/>
       <c r="U27" s="16"/>
@@ -6098,7 +6321,9 @@
       <c r="B28" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
@@ -6111,22 +6336,36 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T28" s="69"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
@@ -6144,7 +6383,9 @@
       <c r="B29" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="D29" s="51" t="s">
         <v>46</v>
       </c>
@@ -6157,29 +6398,35 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="O29" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="P29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R29" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S29" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T29" s="69"/>
       <c r="U29" s="16"/>
@@ -6380,7 +6627,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6444,7 +6691,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7026,10 +7273,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="88" t="s">
+      <c r="V56" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="88">
+      <c r="W56" s="87">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7058,8 +7305,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="89"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7085,8 +7332,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -8435,43 +8682,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8516,58 +8763,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="91" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="82" t="s">
+      <c r="W4" s="81" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8592,24 +8839,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8635,7 +8882,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8666,7 +8913,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8695,7 +8942,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="85"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8724,7 +8971,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="85"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8753,7 +9000,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="85"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8782,7 +9029,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="85"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8811,7 +9058,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8842,7 +9089,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="85"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8871,7 +9118,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="85"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8900,7 +9147,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="85"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8929,7 +9176,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10163,10 +10410,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="88" t="s">
+      <c r="V56" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="88">
+      <c r="W56" s="87">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10195,8 +10442,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="89"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10222,8 +10469,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TarisSG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="30" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="152">
   <si>
     <t>STT</t>
   </si>
@@ -496,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,12 +559,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -718,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -867,9 +861,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,14 +882,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,14 +894,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,30 +924,6 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,11 +945,41 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N18"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1334,43 +1319,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1415,156 +1400,156 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="81" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>868183038495110</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="50" t="s">
         <v>142</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="84" t="s">
+      <c r="U6" s="60"/>
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1575,55 +1560,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>868183033789152</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="52" t="s">
         <v>86</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53" t="s">
+      <c r="O7" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="50" t="s">
         <v>87</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="85"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1632,55 +1617,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>868183038084682</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="52" t="s">
         <v>140</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>99</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="85"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1689,55 +1674,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>867717030420278</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="65" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="50" t="s">
         <v>87</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="85"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1746,53 +1731,53 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="51">
         <v>867857039925130</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="65" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="52" t="s">
         <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="L10" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="52" t="s">
         <v>86</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="55" t="s">
         <v>87</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="85"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1801,55 +1786,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <v>868183034807326</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="51" t="s">
+      <c r="R11" s="50" t="s">
         <v>99</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="85"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1858,55 +1843,55 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <v>868183034596606</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="52" t="s">
         <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="52" t="s">
         <v>86</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="55" t="s">
         <v>87</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="84" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1917,33 +1902,33 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <v>868183033836789</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="52" t="s">
         <v>85</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1952,7 +1937,7 @@
       <c r="N13" s="13">
         <v>20000</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -1965,9 +1950,9 @@
         <v>99</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="85"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1976,23 +1961,23 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <v>868183034623301</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>138</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2001,10 +1986,10 @@
       <c r="J14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="52" t="s">
         <v>85</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2013,7 +1998,7 @@
       <c r="N14" s="13">
         <v>300000</v>
       </c>
-      <c r="O14" s="53" t="s">
+      <c r="O14" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -2026,9 +2011,9 @@
         <v>142</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="85"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2037,21 +2022,21 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>868183033872156</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="2" t="s">
         <v>77</v>
       </c>
@@ -2061,14 +2046,14 @@
       <c r="K15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="52" t="s">
         <v>85</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="53" t="s">
+      <c r="O15" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -2081,9 +2066,9 @@
         <v>37</v>
       </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="63"/>
+      <c r="T15" s="60"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="85"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2092,20 +2077,20 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>868183035898084</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="11"/>
@@ -2118,14 +2103,14 @@
       <c r="K16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="52" t="s">
         <v>85</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2138,9 +2123,9 @@
         <v>37</v>
       </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="63"/>
+      <c r="T16" s="60"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="86"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2149,23 +2134,23 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <v>867857039912493</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="51"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="1" t="s">
         <v>90</v>
       </c>
@@ -2175,14 +2160,14 @@
       <c r="K17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="53" t="s">
+      <c r="L17" s="52" t="s">
         <v>85</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="53" t="s">
+      <c r="O17" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -2195,32 +2180,32 @@
         <v>37</v>
       </c>
       <c r="S17" s="4"/>
-      <c r="T17" s="63"/>
+      <c r="T17" s="60"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="60"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>868183033817060</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="51"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="15" t="s">
         <v>83</v>
       </c>
@@ -2230,14 +2215,14 @@
       <c r="K18" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="52" t="s">
         <v>85</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>79</v>
       </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -2250,7 +2235,7 @@
         <v>37</v>
       </c>
       <c r="S18" s="4"/>
-      <c r="T18" s="63"/>
+      <c r="T18" s="60"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -2277,9 +2262,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="63"/>
+      <c r="T19" s="60"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="19" t="s">
@@ -2308,7 +2293,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="63"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -2340,7 +2325,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="63"/>
+      <c r="T21" s="60"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -2372,7 +2357,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="63"/>
+      <c r="T22" s="60"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -2404,7 +2389,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="63"/>
+      <c r="T23" s="60"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -2431,7 +2416,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="63"/>
+      <c r="T24" s="60"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -2458,9 +2443,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="63"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="19" t="s">
@@ -2489,7 +2474,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="63"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2521,7 +2506,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="63"/>
+      <c r="T27" s="60"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -2553,7 +2538,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="63"/>
+      <c r="T28" s="60"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -2585,7 +2570,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="63"/>
+      <c r="T29" s="60"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -2617,7 +2602,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="63"/>
+      <c r="T30" s="60"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -2649,7 +2634,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="63"/>
+      <c r="T31" s="60"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -2681,7 +2666,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="63"/>
+      <c r="T32" s="60"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -2713,7 +2698,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="63"/>
+      <c r="T33" s="60"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -2745,7 +2730,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="63"/>
+      <c r="T34" s="60"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -2777,7 +2762,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="63"/>
+      <c r="T35" s="60"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -2809,7 +2794,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="63"/>
+      <c r="T36" s="60"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -2841,7 +2826,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="63"/>
+      <c r="T37" s="60"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
@@ -2873,7 +2858,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="63"/>
+      <c r="T38" s="60"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -2900,7 +2885,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="63"/>
+      <c r="T39" s="60"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -2927,7 +2912,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="63"/>
+      <c r="T40" s="60"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -2959,7 +2944,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="63"/>
+      <c r="T41" s="60"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -2991,7 +2976,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="63"/>
+      <c r="T42" s="60"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -3018,7 +3003,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="63"/>
+      <c r="T43" s="60"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -3047,10 +3032,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="46"/>
       <c r="U44" s="16"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3220,10 +3205,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="62"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -3234,7 +3219,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="62"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -3430,10 +3415,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="87" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="87">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3462,8 +3447,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3489,8 +3474,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4777,6 +4762,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4787,16 +4782,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4807,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4839,43 +4824,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4920,139 +4905,139 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="81" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="51">
         <v>864811036951700</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="52" t="s">
         <v>114</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -5068,8 +5053,8 @@
         <v>104</v>
       </c>
       <c r="T6" s="28"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="84" t="s">
+      <c r="U6" s="64"/>
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -5080,55 +5065,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="51">
         <v>866192037822168</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>107</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="52" t="s">
         <v>115</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53" t="s">
+      <c r="O7" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="50" t="s">
         <v>36</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>104</v>
       </c>
       <c r="T7" s="28"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="85"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5137,55 +5122,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="51">
         <v>868345031033004</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="52" t="s">
         <v>86</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>87</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="85"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5194,57 +5179,57 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <v>868345035630284</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="65" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="55" t="s">
         <v>113</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="85"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -5253,55 +5238,55 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="51">
         <v>868345031030356</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="53" t="s">
+      <c r="H10" s="50"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="52" t="s">
         <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="53" t="s">
+      <c r="L10" s="52" t="s">
         <v>114</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>126</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="55" t="s">
         <v>127</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="85"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5310,23 +5295,23 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="51">
         <v>866192037814470</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="1" t="s">
         <v>103</v>
       </c>
@@ -5336,31 +5321,31 @@
       <c r="K11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="L11" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="51" t="s">
+      <c r="R11" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="85"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5369,57 +5354,57 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="51">
         <v>866192037845094</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="53" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="52" t="s">
         <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="53" t="s">
+      <c r="M12" s="52" t="s">
         <v>148</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="P12" s="53" t="s">
+      <c r="P12" s="52" t="s">
         <v>72</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R12" s="51" t="s">
+      <c r="R12" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="84" t="s">
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5430,40 +5415,40 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <v>868926033918423</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>149</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -5472,66 +5457,66 @@
       <c r="Q13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="51" t="s">
+      <c r="R13" s="50" t="s">
         <v>24</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="85"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="65">
         <v>9</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="68">
         <v>864811037199903</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70" t="s">
+      <c r="K14" s="67"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="N14" s="75"/>
-      <c r="O14" s="72" t="s">
+      <c r="N14" s="70"/>
+      <c r="O14" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="P14" s="70" t="s">
+      <c r="P14" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Q14" s="75" t="s">
+      <c r="Q14" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="70" t="s">
+      <c r="R14" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="85"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5540,23 +5525,23 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>868926033965507</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="51"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="2" t="s">
         <v>91</v>
       </c>
@@ -5566,14 +5551,14 @@
       <c r="K15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="52" t="s">
         <v>114</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="53" t="s">
+      <c r="O15" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -5588,9 +5573,9 @@
       <c r="S15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T15" s="69"/>
+      <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="85"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5599,20 +5584,20 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>868926033950939</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="11"/>
@@ -5625,14 +5610,14 @@
       <c r="K16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="52" t="s">
         <v>114</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -5647,9 +5632,9 @@
       <c r="S16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="69"/>
+      <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="86"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5658,21 +5643,21 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="51">
         <v>868926033983971</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="1" t="s">
         <v>117</v>
       </c>
@@ -5689,7 +5674,7 @@
         <v>144</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="53" t="s">
+      <c r="O17" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -5704,32 +5689,32 @@
       <c r="S17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T17" s="69"/>
+      <c r="T17" s="64"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="69"/>
+      <c r="V17" s="64"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="51">
         <v>864811037201485</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="50" t="s">
         <v>123</v>
       </c>
       <c r="I18" s="15" t="s">
@@ -5748,7 +5733,7 @@
         <v>112</v>
       </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -5763,7 +5748,7 @@
       <c r="S18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T18" s="69"/>
+      <c r="T18" s="64"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -5772,20 +5757,20 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="51">
         <v>866192037846282</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51" t="s">
+      <c r="F19" s="50"/>
+      <c r="G19" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="1"/>
@@ -5805,7 +5790,7 @@
         <v>146</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="53" t="s">
+      <c r="O19" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -5820,9 +5805,9 @@
       <c r="S19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T19" s="69"/>
+      <c r="T19" s="64"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="19" t="s">
@@ -5833,20 +5818,20 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="51">
         <v>868926033919991</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H20" s="1"/>
@@ -5866,7 +5851,7 @@
         <v>112</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="53" t="s">
+      <c r="O20" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -5881,7 +5866,7 @@
       <c r="S20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T20" s="69"/>
+      <c r="T20" s="64"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
@@ -5895,20 +5880,20 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="51">
         <v>866192037825609</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="1"/>
@@ -5928,7 +5913,7 @@
         <v>145</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="53" t="s">
+      <c r="O21" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -5943,7 +5928,7 @@
       <c r="S21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T21" s="69"/>
+      <c r="T21" s="64"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -5957,20 +5942,20 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="51">
         <v>866192037804067</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="50"/>
+      <c r="G22" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H22" s="11"/>
@@ -5990,7 +5975,7 @@
         <v>146</v>
       </c>
       <c r="N22" s="11"/>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -6005,7 +5990,7 @@
       <c r="S22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T22" s="69"/>
+      <c r="T22" s="64"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -6019,20 +6004,20 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="51">
         <v>864811036984446</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="11"/>
@@ -6052,7 +6037,7 @@
         <v>147</v>
       </c>
       <c r="N23" s="11"/>
-      <c r="O23" s="53" t="s">
+      <c r="O23" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P23" s="11" t="s">
@@ -6067,7 +6052,7 @@
       <c r="S23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T23" s="69"/>
+      <c r="T23" s="64"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -6076,20 +6061,20 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="51">
         <v>864811036927247</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H24" s="11"/>
@@ -6109,7 +6094,7 @@
         <v>112</v>
       </c>
       <c r="N24" s="11"/>
-      <c r="O24" s="53" t="s">
+      <c r="O24" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P24" s="11" t="s">
@@ -6124,7 +6109,7 @@
       <c r="S24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T24" s="69"/>
+      <c r="T24" s="64"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -6133,20 +6118,20 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="51">
         <v>866192037808969</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H25" s="11"/>
@@ -6166,7 +6151,7 @@
         <v>146</v>
       </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="53" t="s">
+      <c r="O25" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P25" s="11" t="s">
@@ -6181,9 +6166,9 @@
       <c r="S25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T25" s="69"/>
+      <c r="T25" s="64"/>
       <c r="U25" s="16"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="19" t="s">
@@ -6194,20 +6179,20 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="51">
         <v>864811036917446</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H26" s="11"/>
@@ -6227,7 +6212,7 @@
         <v>134</v>
       </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P26" s="11" t="s">
@@ -6242,7 +6227,7 @@
       <c r="S26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T26" s="69"/>
+      <c r="T26" s="64"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -6256,20 +6241,20 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="51">
         <v>864811036944606</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="11"/>
@@ -6289,7 +6274,7 @@
         <v>112</v>
       </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P27" s="11" t="s">
@@ -6304,7 +6289,7 @@
       <c r="S27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T27" s="69"/>
+      <c r="T27" s="64"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -6318,20 +6303,20 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="51">
         <v>868345035617042</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="1"/>
@@ -6351,7 +6336,7 @@
         <v>112</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -6366,7 +6351,7 @@
       <c r="S28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T28" s="69"/>
+      <c r="T28" s="64"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -6380,20 +6365,20 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="51">
         <v>866192037796370</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="50" t="s">
         <v>69</v>
       </c>
       <c r="H29" s="1"/>
@@ -6413,7 +6398,7 @@
         <v>112</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="53" t="s">
+      <c r="O29" s="52" t="s">
         <v>150</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -6428,7 +6413,7 @@
       <c r="S29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T29" s="69"/>
+      <c r="T29" s="64"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -6460,7 +6445,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="69"/>
+      <c r="T30" s="64"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -6492,7 +6477,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="69"/>
+      <c r="T31" s="64"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -6524,7 +6509,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="69"/>
+      <c r="T32" s="64"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -6556,7 +6541,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="69"/>
+      <c r="T33" s="64"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -6588,7 +6573,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="69"/>
+      <c r="T34" s="64"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -6620,7 +6605,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="69"/>
+      <c r="T35" s="64"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -6652,7 +6637,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="69"/>
+      <c r="T36" s="64"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -6684,7 +6669,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="69"/>
+      <c r="T37" s="64"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
@@ -6716,7 +6701,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="69"/>
+      <c r="T38" s="64"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -6743,7 +6728,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="69"/>
+      <c r="T39" s="64"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -6770,7 +6755,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="69"/>
+      <c r="T40" s="64"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -6802,7 +6787,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="69"/>
+      <c r="T41" s="64"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -6834,7 +6819,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="69"/>
+      <c r="T42" s="64"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -6861,7 +6846,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="69"/>
+      <c r="T43" s="64"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -6890,10 +6875,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="46"/>
       <c r="U44" s="16"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7063,10 +7048,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="68"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -7077,7 +7062,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="68"/>
+      <c r="R50" s="63"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -7273,10 +7258,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="87" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="87">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7305,8 +7290,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7332,8 +7317,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -8620,6 +8605,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -8630,16 +8625,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8650,8 +8635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8682,43 +8667,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8763,58 +8748,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="81" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -8839,50 +8824,80 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="B6" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="51">
+        <v>868183038495110</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>142</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="84" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8893,27 +8908,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="B7" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="51">
+        <v>868183033789152</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>86</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="85"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8922,27 +8965,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="B8" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="51">
+        <v>868183038084682</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>140</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>99</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="85"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8951,27 +9022,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="B9" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="51">
+        <v>867717030420278</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="85"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8980,27 +9079,53 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="B10" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="51">
+        <v>867857039925130</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>86</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="O10" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>87</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="85"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9009,27 +9134,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="B11" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868183034807326</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>99</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="85"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9038,27 +9191,55 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="B12" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868183034596606</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>87</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="84" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -9069,27 +9250,57 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="51"/>
+      <c r="B13" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868183033836789</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="13">
+        <v>20000</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="85"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9098,27 +9309,59 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="56"/>
+      <c r="B14" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868183034623301</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="13">
+        <v>300000</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="85"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9127,27 +9370,53 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="51"/>
+      <c r="B15" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="51">
+        <v>868183033872156</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="85"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9156,27 +9425,55 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="56"/>
+      <c r="B16" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="51">
+        <v>868183035898084</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="86"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9185,23 +9482,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="56"/>
+      <c r="B17" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="51">
+        <v>867857039912493</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="30"/>
       <c r="U17" s="16"/>
@@ -9212,23 +9537,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="56"/>
+      <c r="B18" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="51">
+        <v>868183033817060</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="30"/>
       <c r="U18" s="16"/>
@@ -9239,24 +9592,54 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="4"/>
+      <c r="B19" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="51">
+        <v>864811036951700</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T19" s="30"/>
       <c r="U19" s="16"/>
       <c r="V19" s="5" t="s">
@@ -9270,24 +9653,52 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
+      <c r="B20" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="51">
+        <v>866192037822168</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T20" s="30"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
@@ -9295,30 +9706,58 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="11"/>
+      <c r="B21" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="51">
+        <v>868345031033004</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="55" t="s">
+        <v>87</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="30"/>
       <c r="U21" s="16"/>
@@ -9327,31 +9766,61 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
+      <c r="B22" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="51">
+        <v>868345035630284</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="54"/>
+      <c r="O22" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T22" s="30"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
@@ -9359,31 +9828,59 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
+      <c r="B23" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="51">
+        <v>868345031030356</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T23" s="30"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -9393,24 +9890,54 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
+      <c r="B24" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="51">
+        <v>866192037814470</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24" s="54"/>
+      <c r="O24" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R24" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T24" s="30"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
@@ -9420,24 +9947,54 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="4"/>
+      <c r="B25" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="51">
+        <v>866192037845094</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T25" s="30"/>
       <c r="U25" s="16"/>
       <c r="V25" s="5" t="s">
@@ -9451,24 +10008,54 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="4"/>
+      <c r="B26" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="51">
+        <v>868926033918423</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T26" s="30"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
@@ -9476,63 +10063,115 @@
       </c>
       <c r="W26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="4" t="s">
+      <c r="B27" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="58">
+        <v>864811037199903</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W27" s="1">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
+      <c r="B28" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="51">
+        <v>868926033965507</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T28" s="30"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
@@ -9547,24 +10186,54 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="B29" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="51">
+        <v>868926033950939</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
+      <c r="O29" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T29" s="30"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
@@ -9579,24 +10248,52 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="B30" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="51">
+        <v>868926033983971</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="4"/>
+      <c r="O30" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T30" s="30"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
@@ -9604,31 +10301,63 @@
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="4"/>
+      <c r="B31" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="51">
+        <v>864811037201485</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N31" s="15"/>
+      <c r="O31" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T31" s="30"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
@@ -9636,31 +10365,61 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="51">
+        <v>866192037846282</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
+        <v>69</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="4"/>
+      <c r="O32" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T32" s="30"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
@@ -9668,31 +10427,61 @@
       </c>
       <c r="W32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="51">
+        <v>868926033919991</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50" t="s">
+        <v>69</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="4"/>
+      <c r="O33" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T33" s="30"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
@@ -9700,31 +10489,61 @@
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="B34" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="51">
+        <v>866192037825609</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50" t="s">
+        <v>69</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="4"/>
+      <c r="O34" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T34" s="30"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
@@ -9732,31 +10551,61 @@
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="4"/>
+      <c r="B35" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="51">
+        <v>866192037804067</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T35" s="30"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
@@ -9764,31 +10613,61 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="4"/>
+      <c r="B36" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="51">
+        <v>864811036984446</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T36" s="30"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
@@ -9803,24 +10682,54 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="4"/>
+      <c r="B37" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="51">
+        <v>864811036927247</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T37" s="30"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
@@ -9828,31 +10737,61 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="4"/>
+      <c r="B38" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="51">
+        <v>866192037808969</v>
+      </c>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T38" s="30"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
@@ -9862,24 +10801,54 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="4"/>
+      <c r="B39" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="51">
+        <v>864811036917446</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N39" s="11"/>
+      <c r="O39" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T39" s="30"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
@@ -9889,24 +10858,54 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="4"/>
+      <c r="B40" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="51">
+        <v>864811036944606</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N40" s="11"/>
+      <c r="O40" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T40" s="30"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
@@ -9921,24 +10920,54 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="B41" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="51">
+        <v>868345035617042</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="4"/>
+      <c r="O41" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T41" s="30"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
@@ -9946,31 +10975,61 @@
       </c>
       <c r="W41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="51">
+        <v>866192037796370</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50" t="s">
+        <v>69</v>
+      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="4"/>
+      <c r="O42" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="T42" s="30"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
@@ -10095,7 +11154,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10159,7 +11218,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10410,10 +11469,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="87" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="87">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10442,8 +11501,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -10469,8 +11528,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10587,7 +11646,7 @@
       </c>
       <c r="W62" s="11">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11757,6 +12816,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11767,16 +12836,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
